--- a/Organisation/Anforderungs Katalog.xlsx
+++ b/Organisation/Anforderungs Katalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sevler\Documents\UNi\webapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B76A8-BCA9-4ED0-8945-FE3FBA929229}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BE938-CB25-4D4C-8D52-A0DD655E60E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Passwort zurücksetzen</t>
   </si>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +563,7 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -573,9 +571,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -583,7 +579,9 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -604,22 +602,21 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -627,7 +624,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>

--- a/Organisation/Anforderungs Katalog.xlsx
+++ b/Organisation/Anforderungs Katalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BE938-CB25-4D4C-8D52-A0DD655E60E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2A113-3C84-42C7-B204-EB50DE8F3EB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,21 +610,21 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
+      <c r="A11" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>

--- a/Organisation/Anforderungs Katalog.xlsx
+++ b/Organisation/Anforderungs Katalog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\WebApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sevler\Documents\UNi\webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2A113-3C84-42C7-B204-EB50DE8F3EB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F025991-8A44-4285-AD66-0FA725CB9D6C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Passwort zurücksetzen</t>
   </si>
@@ -76,13 +76,19 @@
   </si>
   <si>
     <t>Interessenprofileverwaltung</t>
+  </si>
+  <si>
+    <t>KW 33</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +122,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Marlett"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +189,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -192,6 +204,9 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -535,7 +550,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,14 +590,16 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -605,7 +622,9 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
@@ -613,7 +632,9 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
